--- a/Data/EC/NIT-9008586189.xlsx
+++ b/Data/EC/NIT-9008586189.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1078292-4A5E-4E75-A4A5-C479B063EECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A9A91D-447B-4302-88B6-E024CCDA0837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A7C55EF5-BF39-43D4-9EE0-291F06A18317}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC68F0E0-7497-4CF8-9EDF-6A368F345136}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,112 +71,112 @@
     <t>LUIS FERNANDO CERVANTES COGOLLO</t>
   </si>
   <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1707</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -275,7 +275,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -288,9 +290,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -490,23 +490,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,10 +534,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,7 +590,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CCB6D9-E5B5-4CEE-B13B-416BDB5262F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906000C2-7DF6-B511-8F61-5574AF80871C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,7 +941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F907A8FD-8AE1-447F-8CB7-AF2D6F964FF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D47A08-51CB-49E4-A85D-3CC84DD6E64F}">
   <dimension ref="B2:J57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1119,10 +1119,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29166</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1142,10 +1142,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1165,10 +1165,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1188,10 +1188,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1211,10 +1211,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1234,10 +1234,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1257,10 +1257,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1280,10 +1280,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1303,10 +1303,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1326,10 +1326,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1349,10 +1349,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1375,7 +1375,7 @@
         <v>31249</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1398,7 +1398,7 @@
         <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1421,7 +1421,7 @@
         <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1444,7 +1444,7 @@
         <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1467,7 +1467,7 @@
         <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1490,7 +1490,7 @@
         <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1513,7 +1513,7 @@
         <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1536,7 +1536,7 @@
         <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1559,7 +1559,7 @@
         <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1582,7 +1582,7 @@
         <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1605,7 +1605,7 @@
         <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1628,7 +1628,7 @@
         <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1651,7 +1651,7 @@
         <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1674,7 +1674,7 @@
         <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1694,10 +1694,10 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1717,10 +1717,10 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1740,10 +1740,10 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1763,10 +1763,10 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1786,10 +1786,10 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1809,10 +1809,10 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1832,10 +1832,10 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1855,10 +1855,10 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1878,10 +1878,10 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1901,10 +1901,10 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1924,10 +1924,10 @@
         <v>46</v>
       </c>
       <c r="F51" s="24">
-        <v>29509</v>
+        <v>29166</v>
       </c>
       <c r="G51" s="24">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
